--- a/clusters_at_multiple_snapshots/fire2_chemistry_analysis_multiple_snapshots/mgfe_star_count_clusters.xlsx
+++ b/clusters_at_multiple_snapshots/fire2_chemistry_analysis_multiple_snapshots/mgfe_star_count_clusters.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>372</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>11</v>
-      </c>
-      <c r="C7">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
         <v>10</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -902,273 +902,9 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>101</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>105</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>142</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>110</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>191</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>122</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>190</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>167</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>83</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>115</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>78</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>75</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>69</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>66</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>55</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>59</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>58</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>38</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>47</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>50</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>52</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>270</v>
-      </c>
-      <c r="C72">
         <v>1</v>
       </c>
     </row>
